--- a/ecosysem/db/Excels/DeltaH0f.xlsx
+++ b/ecosysem/db/Excels/DeltaH0f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD735508-C188-4825-9764-44DE05DCFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565A758E-88E8-433E-9606-995027055392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
+    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
   <sheets>
     <sheet name="DeltaH" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
   <si>
     <t>IUPAC</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t xml:space="preserve"> ATcT (v1.122)</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Sulfur (rhombic)</t>
   </si>
 </sst>
 </file>
@@ -706,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,6 +1443,23 @@
         <v>73</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/ecosysem/db/Excels/DeltaH0f.xlsx
+++ b/ecosysem/db/Excels/DeltaH0f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565A758E-88E8-433E-9606-995027055392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED979ED2-AD8A-4EDB-B235-FF670BFD2866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
@@ -717,8 +717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ecosysem/db/Excels/DeltaH0f.xlsx
+++ b/ecosysem/db/Excels/DeltaH0f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED979ED2-AD8A-4EDB-B235-FF670BFD2866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17522AA2-316E-411C-9C29-07FF62DD4C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     [kJ/mol]</t>
       </text>
     </comment>
-    <comment ref="A42" authorId="2" shapeId="0" xr:uid="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
+    <comment ref="A43" authorId="2" shapeId="0" xr:uid="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="77">
   <si>
     <t>IUPAC</t>
   </si>
@@ -701,7 +701,7 @@
   <threadedComment ref="D1" dT="2024-08-08T12:02:07.09" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{F041814C-ECC2-4AB2-BE74-11F857A9EFE3}">
     <text>[kJ/mol]</text>
   </threadedComment>
-  <threadedComment ref="A42" dT="2024-08-17T21:05:32.21" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
+  <threadedComment ref="A43" dT="2024-08-17T21:05:32.21" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
     <text xml:space="preserve">From: Sulfur Dioxide Enthalpy of Formation (anl.gov) </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -715,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,10 +857,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3">
-        <v>-285.89999999999998</v>
+        <v>-241.82599999999999</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>63</v>
@@ -868,16 +868,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3">
-        <v>-74.8</v>
+        <v>-285.89999999999998</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>63</v>
@@ -891,30 +891,30 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3">
-        <v>-87.92</v>
+        <v>-74.8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>-87.92</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -925,30 +925,30 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -959,30 +959,30 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3">
-        <v>-45.94</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -993,10 +993,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3">
-        <v>-80.290000000000006</v>
+        <v>-45.94</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>63</v>
@@ -1004,16 +1004,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="3">
-        <v>-133.26</v>
+        <v>-80.290000000000006</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>63</v>
@@ -1021,16 +1021,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="3">
-        <v>91.29</v>
+        <v>-133.26</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>63</v>
@@ -1044,30 +1044,30 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3">
         <v>91.29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="3">
-        <v>-20.6</v>
+        <v>91.29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1078,10 +1078,10 @@
         <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3">
-        <v>-38.6</v>
+        <v>-20.6</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>63</v>
@@ -1089,16 +1089,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="3">
-        <v>-16.3</v>
+        <v>-38.6</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>63</v>
@@ -1106,50 +1106,50 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="3">
-        <v>33.1</v>
+        <v>-16.3</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="3">
-        <v>-608.80999999999995</v>
+        <v>33.1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="3">
-        <v>-626.22</v>
+        <v>-608.80999999999995</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>63</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D26" s="3">
-        <v>-635.5</v>
+        <v>-626.22</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>63</v>
@@ -1174,16 +1174,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="3">
-        <v>-814</v>
+        <v>-635.5</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>63</v>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D28" s="3">
-        <v>-886.9</v>
+        <v>-814</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>63</v>
@@ -1208,16 +1208,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="3">
-        <v>-909.34</v>
+        <v>-886.9</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>63</v>
@@ -1225,16 +1225,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="3">
-        <v>-484.13</v>
+        <v>-909.34</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>63</v>
@@ -1242,16 +1242,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="3">
-        <v>-486</v>
+        <v>-484.13</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>63</v>
@@ -1259,16 +1259,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="3">
-        <v>-699.65</v>
+        <v>-486</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>63</v>
@@ -1276,16 +1276,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="3">
-        <v>-689.93</v>
+        <v>-699.65</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>63</v>
@@ -1293,16 +1293,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="3">
-        <v>-673.23</v>
+        <v>-689.93</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>63</v>
@@ -1310,16 +1310,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="3">
-        <v>-79.5</v>
+        <v>-673.23</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>63</v>
@@ -1327,16 +1327,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="3">
-        <v>-104.6</v>
+        <v>-79.5</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>63</v>
@@ -1344,16 +1344,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D37" s="3">
-        <v>-174.1</v>
+        <v>-104.6</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>63</v>
@@ -1361,16 +1361,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D38" s="3">
-        <v>-206.85</v>
+        <v>-174.1</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>63</v>
@@ -1378,16 +1378,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="3">
-        <v>-230.01400000000001</v>
+        <v>-206.85</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>63</v>
@@ -1395,36 +1395,36 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>-230.01400000000001</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D41" s="3">
-        <v>-296.81</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1435,29 +1435,80 @@
         <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="3">
-        <v>-322.82</v>
+        <v>-296.81</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-322.82</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>68</v>
       </c>
     </row>

--- a/ecosysem/db/Excels/DeltaH0f.xlsx
+++ b/ecosysem/db/Excels/DeltaH0f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17522AA2-316E-411C-9C29-07FF62DD4C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EACC69-D19B-4338-AECC-34584427C880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
   <sheets>
     <sheet name="DeltaH" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     [kJ/mol]</t>
       </text>
     </comment>
-    <comment ref="A43" authorId="2" shapeId="0" xr:uid="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
+    <comment ref="A45" authorId="2" shapeId="0" xr:uid="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="77">
   <si>
     <t>IUPAC</t>
   </si>
@@ -701,7 +701,7 @@
   <threadedComment ref="D1" dT="2024-08-08T12:02:07.09" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{F041814C-ECC2-4AB2-BE74-11F857A9EFE3}">
     <text>[kJ/mol]</text>
   </threadedComment>
-  <threadedComment ref="A43" dT="2024-08-17T21:05:32.21" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
+  <threadedComment ref="A45" dT="2024-08-17T21:05:32.21" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
     <text xml:space="preserve">From: Sulfur Dioxide Enthalpy of Formation (anl.gov) </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -715,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,7 +1333,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="3">
         <v>-79.5</v>
@@ -1344,16 +1344,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D37" s="3">
-        <v>-104.6</v>
+        <v>-79.5</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>63</v>
@@ -1361,16 +1361,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D38" s="3">
-        <v>-174.1</v>
+        <v>-104.6</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>63</v>
@@ -1378,16 +1378,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="3">
-        <v>-206.85</v>
+        <v>-133.9</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>63</v>
@@ -1395,16 +1395,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="3">
-        <v>-230.01400000000001</v>
+        <v>-174.1</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>63</v>
@@ -1412,33 +1412,33 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>-206.85</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D42" s="3">
-        <v>-296.81</v>
+        <v>-230.01400000000001</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>63</v>
@@ -1446,53 +1446,53 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D43" s="3">
-        <v>-322.82</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>-296.81</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>-322.82</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1503,12 +1503,46 @@
         <v>74</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>68</v>
       </c>
     </row>

--- a/ecosysem/db/Excels/DeltaH0f.xlsx
+++ b/ecosysem/db/Excels/DeltaH0f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EACC69-D19B-4338-AECC-34584427C880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997A796-8351-4D06-8731-B21D6E4DE6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ecosysem/db/Excels/DeltaH0f.xlsx
+++ b/ecosysem/db/Excels/DeltaH0f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997A796-8351-4D06-8731-B21D6E4DE6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E163EB8-A560-4394-A616-7E1DCC557D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
+    <workbookView xWindow="11328" yWindow="-17280" windowWidth="15552" windowHeight="16656" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
   <sheets>
     <sheet name="DeltaH" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ecosysem/db/Excels/DeltaH0f.xlsx
+++ b/ecosysem/db/Excels/DeltaH0f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E163EB8-A560-4394-A616-7E1DCC557D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4292844A-EC27-49BE-9BDA-C2C82DE4BCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="-17280" windowWidth="15552" windowHeight="16656" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A62AFDAB-FBC8-40CE-9878-3FD750A8957F}"/>
   </bookViews>
   <sheets>
     <sheet name="DeltaH" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     [kJ/mol]</t>
       </text>
     </comment>
-    <comment ref="A45" authorId="2" shapeId="0" xr:uid="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
+    <comment ref="A43" authorId="2" shapeId="0" xr:uid="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
   <si>
     <t>IUPAC</t>
   </si>
@@ -209,9 +209,6 @@
     <t>CH3COO-</t>
   </si>
   <si>
-    <t xml:space="preserve"> CH3COOH</t>
-  </si>
-  <si>
     <t>Acetic acid</t>
   </si>
   <si>
@@ -303,6 +300,45 @@
   </si>
   <si>
     <t>Sulfur (rhombic)</t>
+  </si>
+  <si>
+    <t>Formic acid</t>
+  </si>
+  <si>
+    <t>HCOOH</t>
+  </si>
+  <si>
+    <t>Formate</t>
+  </si>
+  <si>
+    <t>HCOO-</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>Glycine anion</t>
+  </si>
+  <si>
+    <t>Gucker1940</t>
+  </si>
+  <si>
+    <t>NH2CH2COOH</t>
+  </si>
+  <si>
+    <t>NH2CH2COO-</t>
+  </si>
+  <si>
+    <t>CH3COOH</t>
+  </si>
+  <si>
+    <t>Dinitrogen</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Asm.</t>
   </si>
 </sst>
 </file>
@@ -701,7 +737,7 @@
   <threadedComment ref="D1" dT="2024-08-08T12:02:07.09" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{F041814C-ECC2-4AB2-BE74-11F857A9EFE3}">
     <text>[kJ/mol]</text>
   </threadedComment>
-  <threadedComment ref="A45" dT="2024-08-17T21:05:32.21" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
+  <threadedComment ref="A43" dT="2024-08-17T21:05:32.21" personId="{6650A879-AA15-437C-813B-5AC12B7C2882}" id="{FDC966B5-7AD9-4D45-817F-E484D096CBB7}">
     <text xml:space="preserve">From: Sulfur Dioxide Enthalpy of Formation (anl.gov) </text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -715,17 +751,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC731D4-E3C1-4B64-BF1D-C3C9432561A9}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:E5"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="3" width="11.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -755,13 +792,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3">
         <v>-110.5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -772,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3">
         <v>-110.5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -789,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3">
         <v>-393.5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -806,13 +843,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3">
         <v>-413.26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -823,13 +860,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -840,13 +877,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3">
         <v>-12.06</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -857,13 +894,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="3">
         <v>-241.82599999999999</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -874,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3">
         <v>-285.89999999999998</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -891,13 +928,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3">
         <v>-74.8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -908,13 +945,13 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3">
         <v>-87.92</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -925,13 +962,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -942,13 +979,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -959,13 +996,13 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3">
         <v>82</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -976,13 +1013,13 @@
         <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3">
         <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -993,13 +1030,13 @@
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3">
         <v>-45.94</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1010,13 +1047,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="3">
         <v>-80.290000000000006</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1027,13 +1064,13 @@
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3">
         <v>-133.26</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1044,13 +1081,13 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="3">
         <v>91.29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1061,13 +1098,13 @@
         <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3">
         <v>91.29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1078,13 +1115,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3">
         <v>-20.6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1095,13 +1132,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3">
         <v>-38.6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1112,13 +1149,13 @@
         <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3">
         <v>-16.3</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1129,13 +1166,13 @@
         <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3">
         <v>33.1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1146,13 +1183,13 @@
         <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3">
         <v>-608.80999999999995</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1163,13 +1200,13 @@
         <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3">
         <v>-626.22</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1180,13 +1217,13 @@
         <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="3">
         <v>-635.5</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1197,13 +1234,13 @@
         <v>37</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="3">
         <v>-814</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1214,13 +1251,13 @@
         <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="3">
         <v>-886.9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1231,13 +1268,13 @@
         <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3">
         <v>-909.34</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1245,67 +1282,67 @@
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3">
-        <v>-484.13</v>
+        <v>-699.65</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="3">
-        <v>-486</v>
+        <v>-689.93</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="3">
-        <v>-699.65</v>
+        <v>-673.23</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="3">
-        <v>-689.93</v>
+        <v>-79.5</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1313,21 +1350,21 @@
         <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="3">
-        <v>-673.23</v>
+        <v>-79.5</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>54</v>
@@ -1336,27 +1373,27 @@
         <v>69</v>
       </c>
       <c r="D36" s="3">
-        <v>-79.5</v>
+        <v>-104.6</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D37" s="3">
-        <v>-79.5</v>
+        <v>-133.9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1364,152 +1401,152 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="3">
-        <v>-104.6</v>
+        <v>-174.1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D39" s="3">
-        <v>-133.9</v>
+        <v>-206.85</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="3">
-        <v>-174.1</v>
+        <v>-230.01400000000001</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="3">
-        <v>-206.85</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42" s="3">
-        <v>-230.01400000000001</v>
+        <v>-296.81</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>-322.82</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="3">
-        <v>-296.81</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="3">
-        <v>-322.82</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1517,33 +1554,118 @@
         <v>76</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>-424.7</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D48" s="3">
+        <v>-410</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-512.58000000000004</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-469.8</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-484.13</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-486</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>68</v>
+      <c r="E53" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
